--- a/PLFS-ETL-Status.xlsx
+++ b/PLFS-ETL-Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E02D02-FFBE-4AD1-A77A-368C8B0AFC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E041C4-3A58-4877-ACF4-18CD7EBA58FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CBA38F1-F1A0-4CC0-A93E-2BC473435677}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t xml:space="preserve">Table No. 17 </t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -649,7 +658,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,11 +1284,22 @@
       <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H31" si="4">((CODE(G20)-CODE(F20)+1)*(E20-D20+1))*C20</f>
+        <v>1998</v>
+      </c>
       <c r="I20" s="12" t="s">
         <v>46</v>
       </c>
@@ -1299,11 +1319,22 @@
       <c r="C21" s="1">
         <v>9</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="1">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>2997</v>
+      </c>
       <c r="I21" s="12" t="s">
         <v>46</v>
       </c>
@@ -1323,11 +1354,22 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="1">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>999</v>
+      </c>
       <c r="I22" s="12" t="s">
         <v>46</v>
       </c>
@@ -1359,7 +1401,10 @@
       <c r="G23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>1332</v>
+      </c>
       <c r="I23" s="12" t="s">
         <v>46</v>
       </c>
@@ -1391,7 +1436,10 @@
       <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>1332</v>
+      </c>
       <c r="I24" s="12" t="s">
         <v>46</v>
       </c>
@@ -1411,11 +1459,22 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>1332</v>
+      </c>
       <c r="I25" s="12" t="s">
         <v>46</v>
       </c>
@@ -1435,11 +1494,22 @@
       <c r="C26" s="1">
         <v>36</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>23976</v>
+      </c>
       <c r="I26" s="12" t="s">
         <v>46</v>
       </c>
@@ -1459,11 +1529,22 @@
       <c r="C27" s="1">
         <v>36</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
       <c r="I27" s="12" t="s">
         <v>46</v>
       </c>
@@ -1483,11 +1564,22 @@
       <c r="C28" s="1">
         <v>9</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
       <c r="I28" s="12" t="s">
         <v>46</v>
       </c>
@@ -1507,11 +1599,22 @@
       <c r="C29" s="1">
         <v>9</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="D29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
       <c r="I29" s="12" t="s">
         <v>46</v>
       </c>
@@ -1531,12 +1634,25 @@
       <c r="C30" s="1">
         <v>36</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>10656</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
         <v>45</v>
@@ -1553,12 +1669,25 @@
       <c r="C31" s="1">
         <v>36</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="D31" s="1">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>10656</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
         <v>45</v>
@@ -1591,7 +1720,7 @@
       </c>
       <c r="H33" s="2">
         <f>SUM(H4:H31)</f>
-        <v>29304</v>
+        <v>85077</v>
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="2"/>

--- a/PLFS-ETL-Status.xlsx
+++ b/PLFS-ETL-Status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E041C4-3A58-4877-ACF4-18CD7EBA58FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB89896-9AEB-40AB-9D95-EE31B0803B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CBA38F1-F1A0-4CC0-A93E-2BC473435677}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CBA38F1-F1A0-4CC0-A93E-2BC473435677}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 Year" sheetId="1" r:id="rId1"/>
+    <sheet name="2022-23" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-22" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="87">
   <si>
     <t xml:space="preserve">Table No. 17 </t>
   </si>
@@ -195,13 +196,106 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Table No.16.0</t>
+  </si>
+  <si>
+    <t>Table No. 17.0</t>
+  </si>
+  <si>
+    <t>Table No. 18.0</t>
+  </si>
+  <si>
+    <t>TableNo. 19</t>
+  </si>
+  <si>
+    <t>Table No. 20.0</t>
+  </si>
+  <si>
+    <t>Table No. 22.0</t>
+  </si>
+  <si>
+    <t>Table No. 23.0</t>
+  </si>
+  <si>
+    <t>Table No. 24.0</t>
+  </si>
+  <si>
+    <t>Table No.26.0</t>
+  </si>
+  <si>
+    <t>Table No. 27.0</t>
+  </si>
+  <si>
+    <t>Table No. 34.0</t>
+  </si>
+  <si>
+    <t>Table No. 35.0</t>
+  </si>
+  <si>
+    <t>Table No. 37.0</t>
+  </si>
+  <si>
+    <t>Table No. 38.0</t>
+  </si>
+  <si>
+    <t>Table No. 40.0</t>
+  </si>
+  <si>
+    <t>Table No. 41.0</t>
+  </si>
+  <si>
+    <t>Table No. 42.0</t>
+  </si>
+  <si>
+    <t>Table No. 43.0</t>
+  </si>
+  <si>
+    <t>Table No. 44.0</t>
+  </si>
+  <si>
+    <t>Table No. 45.0</t>
+  </si>
+  <si>
+    <t>Table No. 36.0</t>
+  </si>
+  <si>
+    <t>Table No. 46.0</t>
+  </si>
+  <si>
+    <t>Table No. 47</t>
+  </si>
+  <si>
+    <t>Table No. 57</t>
+  </si>
+  <si>
+    <t>Table No. 25.0</t>
+  </si>
+  <si>
+    <t>Table No.29.0</t>
+  </si>
+  <si>
+    <t>Table No.30.0</t>
+  </si>
+  <si>
+    <t>Table No.31.0</t>
+  </si>
+  <si>
+    <t>2 Type 1 Done</t>
+  </si>
+  <si>
+    <t>Not all staete</t>
+  </si>
+  <si>
+    <t>State Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +330,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -295,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,6 +430,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,6 +444,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF221168-1AD3-4255-8AD4-C09EEA1E37F8}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,20 +791,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -957,7 +1070,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -994,7 +1107,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1">
@@ -1031,7 +1144,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1">
@@ -1142,7 +1255,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1">
@@ -1164,7 +1277,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1">
@@ -1186,7 +1299,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -1208,7 +1321,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1">
@@ -1243,7 +1356,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1">
@@ -1278,7 +1391,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1">
@@ -1313,7 +1426,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1">
@@ -1348,7 +1461,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1">
@@ -1383,7 +1496,7 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1">
@@ -1418,7 +1531,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1">
@@ -1453,7 +1566,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1">
@@ -1488,7 +1601,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1">
@@ -1523,7 +1636,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1">
@@ -1558,7 +1671,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1">
@@ -1593,7 +1706,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1">
@@ -1628,7 +1741,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="1">
@@ -1663,7 +1776,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="1">
@@ -1732,34 +1845,34 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="4">
         <v>281</v>
       </c>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="4">
         <v>17</v>
       </c>
@@ -1779,4 +1892,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67772339-7296-48DD-818D-E5D3D60895FA}">
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>